--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>713775.4798614804</v>
+        <v>710201.5204195096</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6519217.603108715</v>
+        <v>6519217.603108718</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3918876.668170015</v>
+        <v>3918876.668170017</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8285577.673409102</v>
+        <v>8285577.673409101</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>242.5166083752615</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.2398756097325</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>71.27423873582465</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>42.43741174507631</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>388.2474135039329</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>265.1159121960795</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>166.7165542762729</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>398.024936224335</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>401.9511281772666</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1359,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>213.5952110672383</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>36.61269645884408</v>
+        <v>304.7620291299348</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="14">
@@ -1666,16 +1666,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>241.8564012790554</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>309.1587944801078</v>
       </c>
     </row>
     <row r="15">
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.08110241150609</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1909,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
-        <v>72.42473900736887</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128935</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2338,7 +2338,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I23" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>125.9259454362165</v>
+        <v>125.9259454362174</v>
       </c>
       <c r="T23" t="n">
         <v>218.4471662669313</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.4801970412658</v>
+        <v>195.5013461256098</v>
       </c>
       <c r="U25" t="n">
         <v>279.9615737930588</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>34.890319502118</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I26" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>125.9259454362183</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T26" t="n">
-        <v>218.4471662669313</v>
+        <v>218.447166266932</v>
       </c>
       <c r="U26" t="n">
         <v>254.4617931084866</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>195.5013461256098</v>
       </c>
       <c r="U28" t="n">
         <v>279.9615737930588</v>
       </c>
       <c r="V28" t="n">
-        <v>15.22786552652623</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2812,7 +2812,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I29" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="G31" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>150.0724246916283</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I32" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543733</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.7108542792373</v>
+        <v>34.39843167915955</v>
       </c>
       <c r="I34" t="n">
         <v>110.4454267352886</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>119.5894750813112</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U34" t="n">
         <v>279.9615737930588</v>
@@ -3249,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I35" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.2123875306407</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.4801970412658</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>416.82010792585</v>
       </c>
       <c r="G38" t="n">
         <v>404.2898298336167</v>
@@ -3523,7 +3523,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I38" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T38" t="n">
-        <v>218.4471662669329</v>
+        <v>218.4471662669313</v>
       </c>
       <c r="U38" t="n">
         <v>254.4617931084866</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>175.1936731471476</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.33716558595376</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I41" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543671</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561837</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.4801970412658</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.5495531165944</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I44" t="n">
-        <v>71.94970840543668</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561837</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>144.8438584144482</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286.7313567157248</v>
+        <v>1286.674210597145</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960205</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>876.5496199104149</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>462.2094044273116</v>
       </c>
       <c r="F2" t="n">
         <v>41.76508562960205</v>
@@ -4336,22 +4336,22 @@
         <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1481.356235076093</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1097.595934211262</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>696.9525363802143</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>696.9525363802143</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4409,19 +4409,19 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>1708.850297433489</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O3" t="n">
         <v>1708.850297433489</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T4" t="n">
-        <v>1528.297909780678</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.499762326802</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="V4" t="n">
-        <v>971.614017266324</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="W4" t="n">
-        <v>692.5443527751984</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="X4" t="n">
-        <v>454.2004906348818</v>
+        <v>1203.093116471976</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.4647920236465</v>
+        <v>1203.093116471976</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>718.2872204398805</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>718.2872204398805</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>309.5589363327126</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4567,25 +4567,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1592.293889628578</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="N5" t="n">
-        <v>1767.09327468481</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>537.7254774811262</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="W7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="X7" t="n">
-        <v>1543.534340936018</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="Y7" t="n">
-        <v>1318.798642324783</v>
+        <v>1299.499495805762</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1687.610883649055</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C8" t="n">
-        <v>1687.610883649055</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="D8" t="n">
-        <v>1283.146953742115</v>
+        <v>1273.569171908673</v>
       </c>
       <c r="E8" t="n">
-        <v>868.806738259012</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F8" t="n">
-        <v>447.7763262126996</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
         <v>41.76508562960205</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4846,10 +4846,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>41.76508562960205</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M9" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N9" t="n">
-        <v>1075.450954962253</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O9" t="n">
-        <v>1592.293889628578</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.817095773278</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V10" t="n">
-        <v>774.9313507128002</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W10" t="n">
-        <v>495.8616862216745</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X10" t="n">
-        <v>257.5178240813579</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.76508562960205</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>856.3536062232714</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="C11" t="n">
-        <v>446.2290155365415</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H11" t="n">
         <v>41.76508562960205</v>
@@ -5044,7 +5044,7 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K11" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L11" t="n">
         <v>558.6080202959273</v>
@@ -5053,40 +5053,40 @@
         <v>1075.450954962253</v>
       </c>
       <c r="N11" t="n">
+        <v>1075.450954962253</v>
+      </c>
+      <c r="O11" t="n">
         <v>1592.293889628578</v>
       </c>
-      <c r="O11" t="n">
-        <v>2047.697635790537</v>
-      </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W11" t="n">
-        <v>1704.493980615271</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.511458939671</v>
+        <v>1165.865797015991</v>
       </c>
       <c r="Y11" t="n">
-        <v>1266.574785887761</v>
+        <v>1165.865797015991</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L12" t="n">
-        <v>537.7254774811262</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M12" t="n">
-        <v>537.7254774811262</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N12" t="n">
-        <v>1054.568412147451</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O12" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q12" t="n">
         <v>2088.254281480102</v>
@@ -5223,25 +5223,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
         <v>41.76508562960205</v>
@@ -5263,64 +5263,64 @@
         <v>1733.738689835952</v>
       </c>
       <c r="E14" t="n">
-        <v>1319.398474352849</v>
+        <v>1319.398474352848</v>
       </c>
       <c r="F14" t="n">
-        <v>898.3680623065361</v>
+        <v>898.3680623065359</v>
       </c>
       <c r="G14" t="n">
-        <v>489.6397781993682</v>
+        <v>489.639778199368</v>
       </c>
       <c r="H14" t="n">
-        <v>178.7312808270862</v>
+        <v>178.731280827086</v>
       </c>
       <c r="I14" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="J14" t="n">
-        <v>346.5649896119137</v>
+        <v>344.7768375247621</v>
       </c>
       <c r="K14" t="n">
-        <v>884.7244907209532</v>
+        <v>882.9363386338016</v>
       </c>
       <c r="L14" t="n">
-        <v>1597.315890533191</v>
+        <v>1595.52773844604</v>
       </c>
       <c r="M14" t="n">
-        <v>2373.634481524945</v>
+        <v>2371.846329437793</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.815498163563</v>
+        <v>3125.027346076412</v>
       </c>
       <c r="O14" t="n">
-        <v>3770.446354580668</v>
+        <v>3768.658202493516</v>
       </c>
       <c r="P14" t="n">
-        <v>4299.60305249982</v>
+        <v>4297.814900412668</v>
       </c>
       <c r="Q14" t="n">
-        <v>4578.419261518403</v>
+        <v>4618.97590720796</v>
       </c>
       <c r="R14" t="n">
-        <v>4618.975907207968</v>
+        <v>4618.97590720796</v>
       </c>
       <c r="S14" t="n">
-        <v>4483.694832002068</v>
+        <v>4483.69483200206</v>
       </c>
       <c r="T14" t="n">
-        <v>4261.488347948927</v>
+        <v>4261.488347948919</v>
       </c>
       <c r="U14" t="n">
-        <v>4004.427856208437</v>
+        <v>4004.427856208429</v>
       </c>
       <c r="V14" t="n">
-        <v>4004.427856208437</v>
+        <v>3654.59030154491</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.128460977068</v>
+        <v>3270.830000680078</v>
       </c>
       <c r="X14" t="n">
-        <v>3359.485063146021</v>
+        <v>3270.830000680078</v>
       </c>
       <c r="Y14" t="n">
         <v>2958.548390094111</v>
@@ -5336,46 +5336,46 @@
         <v>771.2103600306937</v>
       </c>
       <c r="C15" t="n">
-        <v>637.2152887796394</v>
+        <v>637.2152887796393</v>
       </c>
       <c r="D15" t="n">
-        <v>520.3181309990318</v>
+        <v>520.3181309990317</v>
       </c>
       <c r="E15" t="n">
-        <v>399.8253149913598</v>
+        <v>399.8253149913597</v>
       </c>
       <c r="F15" t="n">
-        <v>290.8654351738645</v>
+        <v>290.8654351738643</v>
       </c>
       <c r="G15" t="n">
-        <v>183.8753224882032</v>
+        <v>183.875322488203</v>
       </c>
       <c r="H15" t="n">
-        <v>113.1281095239192</v>
+        <v>113.128109523919</v>
       </c>
       <c r="I15" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="J15" t="n">
-        <v>92.37951814415936</v>
+        <v>285.1923757067924</v>
       </c>
       <c r="K15" t="n">
-        <v>92.37951814415936</v>
+        <v>740.9986319720911</v>
       </c>
       <c r="L15" t="n">
-        <v>753.4676900634477</v>
+        <v>1402.086803891379</v>
       </c>
       <c r="M15" t="n">
-        <v>1405.352104086135</v>
+        <v>1402.086803891379</v>
       </c>
       <c r="N15" t="n">
-        <v>1405.352104086135</v>
+        <v>1402.086803891379</v>
       </c>
       <c r="O15" t="n">
-        <v>2109.309194632029</v>
+        <v>1402.086803891379</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.309194632029</v>
+        <v>1759.464729948046</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.309194632029</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="C16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="D16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="E16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="F16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="G16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="H16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="I16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
       <c r="J16" t="n">
-        <v>106.4620675493699</v>
+        <v>106.4620675493697</v>
       </c>
       <c r="K16" t="n">
-        <v>261.0143952716079</v>
+        <v>261.0143952716077</v>
       </c>
       <c r="L16" t="n">
-        <v>520.9114955516684</v>
+        <v>520.9114955516682</v>
       </c>
       <c r="M16" t="n">
-        <v>810.1755519921617</v>
+        <v>810.1755519921614</v>
       </c>
       <c r="N16" t="n">
         <v>1091.014334386412</v>
@@ -5460,28 +5460,28 @@
         <v>1621.778414765009</v>
       </c>
       <c r="R16" t="n">
-        <v>1536.505696440409</v>
+        <v>1621.778414765009</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.113928320319</v>
+        <v>1621.778414765009</v>
       </c>
       <c r="T16" t="n">
-        <v>1110.565189297021</v>
+        <v>1391.212635901191</v>
       </c>
       <c r="U16" t="n">
-        <v>827.7670418431455</v>
+        <v>1108.414488447315</v>
       </c>
       <c r="V16" t="n">
-        <v>553.8812967826675</v>
+        <v>834.5287433868368</v>
       </c>
       <c r="W16" t="n">
-        <v>274.8116322915419</v>
+        <v>555.4590788957112</v>
       </c>
       <c r="X16" t="n">
-        <v>92.37951814415936</v>
+        <v>317.1152167553945</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.37951814415936</v>
+        <v>92.37951814415919</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4573.214074014467</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4351.007589961326</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4093.947098220835</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>3744.109543557316</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3360.349242692484</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>850.5733604217953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>850.5733604217953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1111.429368843485</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.27306681584</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>1038.27306681584</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.27306681584</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>1038.27306681584</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>1038.27306681584</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2053.115206569777</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4222.119838211426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>4662.18488453114</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>4662.18488453114</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>4634.555243216706</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C23" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E23" t="n">
         <v>1311.163691508386</v>
       </c>
       <c r="F23" t="n">
-        <v>890.1332794620738</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G23" t="n">
         <v>481.7597139735719</v>
@@ -5992,7 +5992,7 @@
         <v>385.5001609893748</v>
       </c>
       <c r="K23" t="n">
-        <v>967.8832819716195</v>
+        <v>967.8832819716196</v>
       </c>
       <c r="L23" t="n">
         <v>1735.337992756536</v>
@@ -6004,10 +6004,10 @@
         <v>3387.917397531933</v>
       </c>
       <c r="O23" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P23" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250682</v>
       </c>
       <c r="Q23" t="n">
         <v>5027.979950434838</v>
@@ -6019,22 +6019,22 @@
         <v>4963.177351211883</v>
       </c>
       <c r="T23" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U23" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V23" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W23" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X23" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y23" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J24" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K24" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L24" t="n">
-        <v>323.2904852438475</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="M24" t="n">
-        <v>1213.399359353982</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N24" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P24" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q24" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R24" t="n">
         <v>2135.43668320785</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3997.851245132055</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C25" t="n">
-        <v>3997.851245132055</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D25" t="n">
-        <v>3997.851245132055</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E25" t="n">
-        <v>3997.851245132055</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F25" t="n">
-        <v>3833.220119242646</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G25" t="n">
-        <v>3666.128842728899</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H25" t="n">
-        <v>3517.936060628659</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I25" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J25" t="n">
-        <v>3431.483109320746</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K25" t="n">
-        <v>3604.153780248006</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L25" t="n">
-        <v>3887.236121903256</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M25" t="n">
-        <v>4200.94576456317</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N25" t="n">
-        <v>4505.648871775115</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O25" t="n">
-        <v>4787.252048623631</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P25" t="n">
-        <v>5011.788712503886</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R25" t="n">
-        <v>5012.25692681821</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S25" t="n">
-        <v>4828.638091542476</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T25" t="n">
-        <v>4589.769205642207</v>
+        <v>1588.331650692936</v>
       </c>
       <c r="U25" t="n">
-        <v>4306.97973716437</v>
+        <v>1305.542182215099</v>
       </c>
       <c r="V25" t="n">
-        <v>4033.093992103892</v>
+        <v>1031.656437154621</v>
       </c>
       <c r="W25" t="n">
-        <v>3997.851245132055</v>
+        <v>752.5867726634949</v>
       </c>
       <c r="X25" t="n">
-        <v>3997.851245132055</v>
+        <v>514.2429105231784</v>
       </c>
       <c r="Y25" t="n">
-        <v>3997.851245132055</v>
+        <v>289.507211911943</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J26" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K26" t="n">
-        <v>967.8832819716193</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L26" t="n">
         <v>1735.337992756536</v>
@@ -6247,10 +6247,10 @@
         <v>4669.275605250682</v>
       </c>
       <c r="Q26" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R26" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S26" t="n">
         <v>4963.177351211883</v>
@@ -6296,34 +6296,34 @@
         <v>291.736170512492</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9358490198274</v>
+        <v>184.9358490198273</v>
       </c>
       <c r="H27" t="n">
-        <v>116.0216194194847</v>
+        <v>116.0216194194846</v>
       </c>
       <c r="I27" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J27" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K27" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M27" t="n">
-        <v>991.9163796280334</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N27" t="n">
-        <v>1387.222047267905</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P27" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q27" t="n">
         <v>2135.43668320785</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4489.350077379111</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C28" t="n">
-        <v>4318.256704940827</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D28" t="n">
-        <v>4158.762060263737</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E28" t="n">
-        <v>3997.851245132056</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F28" t="n">
-        <v>3833.220119242647</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G28" t="n">
-        <v>3666.1288427289</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H28" t="n">
-        <v>3517.93606062866</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I28" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J28" t="n">
-        <v>3431.483109320747</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K28" t="n">
-        <v>3604.153780248007</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L28" t="n">
-        <v>3887.236121903257</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M28" t="n">
-        <v>4200.945764563171</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N28" t="n">
-        <v>4505.648871775116</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O28" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P28" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q28" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R28" t="n">
-        <v>5012.256926818211</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S28" t="n">
-        <v>5012.256926818211</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T28" t="n">
-        <v>5012.256926818211</v>
+        <v>1588.331650692936</v>
       </c>
       <c r="U28" t="n">
-        <v>4729.467458340373</v>
+        <v>1305.542182215099</v>
       </c>
       <c r="V28" t="n">
-        <v>4714.085775990347</v>
+        <v>1031.656437154621</v>
       </c>
       <c r="W28" t="n">
-        <v>4714.085775990347</v>
+        <v>752.5867726634949</v>
       </c>
       <c r="X28" t="n">
-        <v>4714.085775990347</v>
+        <v>514.2429105231784</v>
       </c>
       <c r="Y28" t="n">
-        <v>4489.350077379111</v>
+        <v>289.507211911943</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J29" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K29" t="n">
-        <v>967.8832819716193</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L29" t="n">
         <v>1735.337992756536</v>
@@ -6542,25 +6542,25 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M30" t="n">
-        <v>465.184723414037</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N30" t="n">
-        <v>1387.222047267905</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P30" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q30" t="n">
         <v>2135.43668320785</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4489.350077379111</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="C31" t="n">
-        <v>4318.256704940827</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="D31" t="n">
-        <v>4158.762060263737</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="E31" t="n">
-        <v>3997.851245132056</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="F31" t="n">
-        <v>3833.220119242647</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G31" t="n">
-        <v>3666.1288427289</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H31" t="n">
-        <v>3517.93606062866</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I31" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J31" t="n">
-        <v>3431.483109320747</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K31" t="n">
-        <v>3604.153780248007</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L31" t="n">
-        <v>3887.236121903257</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M31" t="n">
-        <v>4200.945764563171</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N31" t="n">
-        <v>4505.648871775116</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O31" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P31" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q31" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R31" t="n">
-        <v>5012.256926818211</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S31" t="n">
-        <v>4828.638091542477</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T31" t="n">
-        <v>4828.638091542477</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U31" t="n">
-        <v>4828.638091542477</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V31" t="n">
-        <v>4828.638091542477</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W31" t="n">
-        <v>4677.049783773155</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X31" t="n">
-        <v>4677.049783773155</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y31" t="n">
-        <v>4677.049783773155</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="32">
@@ -6685,31 +6685,31 @@
         <v>1725.50390699149</v>
       </c>
       <c r="E32" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F32" t="n">
-        <v>890.1332794620738</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G32" t="n">
-        <v>481.7597139735722</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H32" t="n">
-        <v>174.4839786547036</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I32" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J32" t="n">
-        <v>385.5001609893746</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K32" t="n">
-        <v>967.8832819716192</v>
+        <v>967.883281971619</v>
       </c>
       <c r="L32" t="n">
         <v>1735.337992756535</v>
       </c>
       <c r="M32" t="n">
-        <v>2572.702588233699</v>
+        <v>2572.702588233698</v>
       </c>
       <c r="N32" t="n">
         <v>3387.917397531933</v>
@@ -6739,7 +6739,7 @@
         <v>4135.653978997438</v>
       </c>
       <c r="W32" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X32" t="n">
         <v>3351.250280301559</v>
@@ -6779,25 +6779,25 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K33" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L33" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M33" t="n">
-        <v>991.9163796280333</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N33" t="n">
-        <v>1913.953703481901</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O33" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P33" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q33" t="n">
         <v>2135.43668320785</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>846.5979104226697</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="C34" t="n">
-        <v>846.5979104226697</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="D34" t="n">
-        <v>687.1032657455796</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="E34" t="n">
-        <v>526.1924506138992</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="F34" t="n">
-        <v>361.5613247244904</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="G34" t="n">
-        <v>361.5613247244904</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="H34" t="n">
         <v>213.3685426242508</v>
@@ -6882,28 +6882,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R34" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T34" t="n">
-        <v>1403.273123960985</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U34" t="n">
-        <v>1120.483655483148</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V34" t="n">
-        <v>846.5979104226697</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W34" t="n">
-        <v>846.5979104226697</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X34" t="n">
-        <v>846.5979104226697</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y34" t="n">
-        <v>846.5979104226697</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="35">
@@ -6922,13 +6922,13 @@
         <v>1725.50390699149</v>
       </c>
       <c r="E35" t="n">
-        <v>1311.163691508387</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F35" t="n">
-        <v>890.1332794620748</v>
+        <v>890.1332794620738</v>
       </c>
       <c r="G35" t="n">
-        <v>481.7597139735726</v>
+        <v>481.7597139735722</v>
       </c>
       <c r="H35" t="n">
         <v>174.4839786547036</v>
@@ -6937,37 +6937,37 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J35" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K35" t="n">
-        <v>967.8832819716207</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L35" t="n">
-        <v>1735.337992756537</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M35" t="n">
-        <v>2572.7025882337</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N35" t="n">
-        <v>3387.917397531935</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.125005286256</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P35" t="n">
-        <v>4669.275605250683</v>
+        <v>4669.275605250681</v>
       </c>
       <c r="Q35" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R35" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S35" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211883</v>
       </c>
       <c r="T35" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911953</v>
       </c>
       <c r="U35" t="n">
         <v>4485.491533660957</v>
@@ -7007,34 +7007,34 @@
         <v>291.736170512492</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9358490198274</v>
+        <v>184.9358490198273</v>
       </c>
       <c r="H36" t="n">
-        <v>116.0216194194847</v>
+        <v>116.0216194194846</v>
       </c>
       <c r="I36" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753219</v>
       </c>
       <c r="L36" t="n">
-        <v>101.8075055178986</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M36" t="n">
-        <v>991.9163796280334</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N36" t="n">
-        <v>1387.222047267905</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O36" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P36" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q36" t="n">
         <v>2135.43668320785</v>
@@ -7119,28 +7119,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R37" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S37" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T37" t="n">
-        <v>1285.201687637798</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U37" t="n">
-        <v>1002.412219159961</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V37" t="n">
-        <v>728.526474099483</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W37" t="n">
-        <v>449.4568096083574</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X37" t="n">
-        <v>211.1129474680408</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y37" t="n">
-        <v>211.1129474680408</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C38" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D38" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E38" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F38" t="n">
         <v>890.1332794620737</v>
@@ -7174,52 +7174,52 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J38" t="n">
-        <v>385.5001609893752</v>
+        <v>385.5001609893746</v>
       </c>
       <c r="K38" t="n">
-        <v>967.8832819716199</v>
+        <v>967.8832819716192</v>
       </c>
       <c r="L38" t="n">
-        <v>1735.337992756537</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M38" t="n">
-        <v>2572.7025882337</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N38" t="n">
         <v>3387.917397531934</v>
       </c>
       <c r="O38" t="n">
-        <v>4090.125005286256</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P38" t="n">
-        <v>4669.275605250683</v>
+        <v>4669.275605250681</v>
       </c>
       <c r="Q38" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.979950434838</v>
       </c>
       <c r="R38" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.37527589493</v>
       </c>
       <c r="S38" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211883</v>
       </c>
       <c r="T38" t="n">
-        <v>4742.523647911952</v>
+        <v>4742.523647911953</v>
       </c>
       <c r="U38" t="n">
-        <v>4485.491533660956</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V38" t="n">
-        <v>4135.653978997437</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W38" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X38" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>291.736170512492</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9358490198274</v>
+        <v>184.9358490198273</v>
       </c>
       <c r="H39" t="n">
-        <v>116.0216194194847</v>
+        <v>116.0216194194846</v>
       </c>
       <c r="I39" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J39" t="n">
-        <v>312.1946397287014</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="K39" t="n">
-        <v>312.1946397287014</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="L39" t="n">
-        <v>312.1946397287014</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="M39" t="n">
-        <v>1164.621175658087</v>
+        <v>991.9163796280333</v>
       </c>
       <c r="N39" t="n">
-        <v>1164.621175658087</v>
+        <v>1913.953703481901</v>
       </c>
       <c r="O39" t="n">
-        <v>1164.621175658087</v>
+        <v>1913.953703481901</v>
       </c>
       <c r="P39" t="n">
-        <v>1761.847650139468</v>
+        <v>1913.953703481901</v>
       </c>
       <c r="Q39" t="n">
         <v>2135.43668320785</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1073.221522268349</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C40" t="n">
-        <v>902.1281498300652</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D40" t="n">
-        <v>742.6335051529752</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E40" t="n">
-        <v>581.7226900212946</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F40" t="n">
-        <v>417.0915641318859</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G40" t="n">
-        <v>250.0002876181383</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H40" t="n">
         <v>101.8075055178986</v>
@@ -7356,28 +7356,28 @@
         <v>1785.807757890522</v>
       </c>
       <c r="R40" t="n">
-        <v>1707.689408813801</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S40" t="n">
-        <v>1524.070573538067</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T40" t="n">
-        <v>1524.070573538067</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U40" t="n">
-        <v>1524.070573538067</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V40" t="n">
-        <v>1250.184828477589</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W40" t="n">
-        <v>1250.184828477589</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X40" t="n">
-        <v>1250.184828477589</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y40" t="n">
-        <v>1250.184828477589</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C41" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D41" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E41" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F41" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620748</v>
       </c>
       <c r="G41" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H41" t="n">
-        <v>174.4839786547034</v>
+        <v>174.4839786547036</v>
       </c>
       <c r="I41" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J41" t="n">
-        <v>385.5001609893752</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K41" t="n">
-        <v>967.8832819716199</v>
+        <v>967.8832819716192</v>
       </c>
       <c r="L41" t="n">
-        <v>1735.337992756537</v>
+        <v>1735.337992756535</v>
       </c>
       <c r="M41" t="n">
-        <v>2572.7025882337</v>
+        <v>2572.702588233698</v>
       </c>
       <c r="N41" t="n">
-        <v>3387.917397531934</v>
+        <v>3387.917397531933</v>
       </c>
       <c r="O41" t="n">
         <v>4090.125005286256</v>
@@ -7450,13 +7450,13 @@
         <v>4135.653978997438</v>
       </c>
       <c r="W41" t="n">
-        <v>3751.893678132606</v>
+        <v>3751.893678132607</v>
       </c>
       <c r="X41" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y41" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J42" t="n">
-        <v>312.1946397287014</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="K42" t="n">
-        <v>312.1946397287014</v>
+        <v>587.6509997645193</v>
       </c>
       <c r="L42" t="n">
-        <v>312.1946397287014</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="M42" t="n">
-        <v>312.1946397287014</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="N42" t="n">
-        <v>972.5242881969278</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="O42" t="n">
-        <v>1720.738924136873</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="P42" t="n">
-        <v>1720.738924136873</v>
+        <v>1886.354419456476</v>
       </c>
       <c r="Q42" t="n">
-        <v>2094.327957205255</v>
+        <v>2135.43668320785</v>
       </c>
       <c r="R42" t="n">
         <v>2135.43668320785</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I43" t="n">
-        <v>3406.375023522308</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J43" t="n">
-        <v>3431.483109320747</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K43" t="n">
-        <v>3604.153780248007</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L43" t="n">
-        <v>3887.236121903257</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M43" t="n">
-        <v>4200.945764563171</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N43" t="n">
-        <v>4505.648871775116</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O43" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P43" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q43" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R43" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S43" t="n">
-        <v>4906.756440619198</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T43" t="n">
-        <v>4667.887554718929</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U43" t="n">
-        <v>4385.098086241092</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V43" t="n">
-        <v>4111.212341180613</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W43" t="n">
-        <v>3832.142676689487</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X43" t="n">
-        <v>3593.798814549171</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y43" t="n">
-        <v>3406.375023522308</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C44" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D44" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E44" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F44" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G44" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H44" t="n">
-        <v>174.4839786547034</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I44" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J44" t="n">
-        <v>385.5001609893749</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K44" t="n">
-        <v>967.8832819716195</v>
+        <v>967.8832819716192</v>
       </c>
       <c r="L44" t="n">
-        <v>1735.337992756536</v>
+        <v>1735.337992756535</v>
       </c>
       <c r="M44" t="n">
-        <v>2572.702588233699</v>
+        <v>2572.702588233698</v>
       </c>
       <c r="N44" t="n">
-        <v>3387.917397531934</v>
+        <v>3387.917397531933</v>
       </c>
       <c r="O44" t="n">
-        <v>4090.125005286255</v>
+        <v>4090.125005286254</v>
       </c>
       <c r="P44" t="n">
-        <v>4669.275605250683</v>
+        <v>4669.275605250681</v>
       </c>
       <c r="Q44" t="n">
         <v>5027.979950434839</v>
@@ -7690,10 +7690,10 @@
         <v>3751.893678132606</v>
       </c>
       <c r="X44" t="n">
-        <v>3351.250280301558</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y44" t="n">
-        <v>2950.313607249648</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>101.8075055178986</v>
       </c>
       <c r="K45" t="n">
-        <v>587.6509997645193</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="L45" t="n">
-        <v>1289.127944975095</v>
+        <v>803.2844507284747</v>
       </c>
       <c r="M45" t="n">
-        <v>1289.127944975095</v>
+        <v>1693.393324838609</v>
       </c>
       <c r="N45" t="n">
-        <v>1289.127944975095</v>
+        <v>1693.393324838609</v>
       </c>
       <c r="O45" t="n">
-        <v>2037.342580915041</v>
+        <v>1693.393324838609</v>
       </c>
       <c r="P45" t="n">
         <v>2135.43668320785</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>248.1144332092604</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C46" t="n">
-        <v>248.1144332092604</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D46" t="n">
         <v>101.8075055178986</v>
@@ -7809,13 +7809,13 @@
         <v>126.9155913163374</v>
       </c>
       <c r="K46" t="n">
-        <v>299.5862622435975</v>
+        <v>299.5862622435974</v>
       </c>
       <c r="L46" t="n">
-        <v>582.6686038988483</v>
+        <v>582.6686038988482</v>
       </c>
       <c r="M46" t="n">
-        <v>896.3782465587623</v>
+        <v>896.3782465587622</v>
       </c>
       <c r="N46" t="n">
         <v>1201.081353770707</v>
@@ -7984,25 +7984,25 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>298.736180582244</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>535.0653799235644</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>232.5803491573229</v>
+        <v>498.2302468367832</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N5" t="n">
-        <v>269.4773261669552</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>362.3241544056883</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491204</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
@@ -8461,22 +8461,22 @@
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>553.1935596277625</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q11" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>557.0846165901664</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>328.2703785864422</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.6663387613575</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>716.0333888118389</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>200.5303479970833</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,16 +9479,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,10 +9497,10 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>141.7522481051737</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>239.037964653941</v>
+        <v>344.0797181430538</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O24" t="n">
-        <v>13.04688769287789</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P24" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>47.3343338125114</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>15.31778311257854</v>
+        <v>385.6036838022404</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N27" t="n">
-        <v>403.6241367246807</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P27" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>47.3343338125114</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>15.31778311257854</v>
+        <v>385.6036838022404</v>
       </c>
       <c r="M30" t="n">
-        <v>377.0041064460642</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P30" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>47.3343338125114</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>15.31778311257854</v>
+        <v>385.6036838022404</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O33" t="n">
-        <v>236.7670692342405</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P33" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>47.3343338125114</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.731845338915</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>33.61744420588941</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>15.31778311257854</v>
+        <v>385.6036838022404</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N36" t="n">
-        <v>403.6241367246807</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P36" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>32.70820599534544</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>47.3343338125114</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>33.61744420588941</v>
       </c>
       <c r="K39" t="n">
         <v>25.48513835903767</v>
       </c>
       <c r="L39" t="n">
-        <v>15.31778311257854</v>
+        <v>15.31778311257855</v>
       </c>
       <c r="M39" t="n">
-        <v>870.9933165806574</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>4.325482542992638</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>13.04688769287789</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>18.38025925244921</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>256.4283875367081</v>
       </c>
       <c r="R39" t="n">
-        <v>47.3343338125114</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248808</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>33.61744420588941</v>
       </c>
       <c r="K42" t="n">
-        <v>25.48513835903767</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>15.31778311257854</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>9.956411601480006</v>
+        <v>9.956411601480013</v>
       </c>
       <c r="N42" t="n">
-        <v>671.3251274603931</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P42" t="n">
-        <v>18.38025925244921</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>284.3064522088541</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681353</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>33.6174442058894</v>
+        <v>33.61744420588941</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>25.48513835903767</v>
       </c>
       <c r="L45" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>9.95641160147995</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>4.325482542992582</v>
+        <v>4.325482542992646</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>13.0468876928779</v>
       </c>
       <c r="P45" t="n">
-        <v>117.4652110633675</v>
+        <v>464.888702049662</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.70820599534541</v>
+        <v>32.70820599534544</v>
       </c>
       <c r="R45" t="n">
-        <v>47.33433381251139</v>
+        <v>47.33433381251141</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>163.506736404601</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0.5802323161168488</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -22603,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>114.5484705942793</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>194.7158398879886</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>17.77593127592968</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22795,13 +22795,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>42.68350020247971</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>19.106155053831</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -23007,10 +23007,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -23029,13 +23029,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>12.17187710393722</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.689873088829529</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23086,7 +23086,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23232,7 +23232,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.89313055788466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>360.0242673938929</v>
+        <v>91.87493472280215</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="14">
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.0662965771277</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>87.76851184128304</v>
       </c>
     </row>
     <row r="15">
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300478</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>45.84716204233405</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
-        <v>207.5454269719682</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,19 +24180,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176241</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.97885091565607</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>241.3886483440963</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S28" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T28" t="n">
-        <v>236.4801970412658</v>
+        <v>40.97885091565607</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>255.919022083347</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18.14095621606646</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T31" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>126.206543154586</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.4203637486101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>112.3124226000777</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T34" t="n">
-        <v>116.8907219599546</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.61032179946324</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.62903618295633</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I40" t="n">
         <v>110.4454267352886</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T40" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25836,7 +25836,7 @@
         <v>77.33716558595376</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.93878850852857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>13.05583981587088</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>514418.8973154525</v>
+        <v>514418.8973154526</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>778762.1270727641</v>
+        <v>778762.1270727633</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783275.4644955761</v>
+        <v>783275.4644955762</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>829748.6599094295</v>
+        <v>829748.6599094297</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829748.6599094295</v>
+        <v>829748.6599094297</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>829748.6599094295</v>
+        <v>829748.6599094297</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829748.6599094295</v>
+        <v>829748.6599094297</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>829748.6599094297</v>
+        <v>829748.6599094298</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829748.6599094296</v>
+        <v>829748.6599094297</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>199771.9648954105</v>
+      </c>
+      <c r="C2" t="n">
         <v>199771.9648954104</v>
       </c>
-      <c r="C2" t="n">
-        <v>199771.9648954105</v>
-      </c>
       <c r="D2" t="n">
-        <v>199771.9648954105</v>
+        <v>199771.9648954104</v>
       </c>
       <c r="E2" t="n">
         <v>199771.9648954105</v>
       </c>
       <c r="F2" t="n">
-        <v>302379.2077037506</v>
+        <v>302379.2077037503</v>
       </c>
       <c r="G2" t="n">
+        <v>304131.1009118485</v>
+      </c>
+      <c r="H2" t="n">
         <v>304131.1009118484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>304131.1009118485</v>
       </c>
       <c r="I2" t="n">
         <v>324762.7513872</v>
       </c>
       <c r="J2" t="n">
-        <v>324762.7513872001</v>
+        <v>324762.7513872</v>
       </c>
       <c r="K2" t="n">
-        <v>324762.7513872002</v>
+        <v>324762.7513872</v>
       </c>
       <c r="L2" t="n">
         <v>324762.7513872</v>
       </c>
       <c r="M2" t="n">
-        <v>324762.7513872</v>
+        <v>324762.7513871999</v>
       </c>
       <c r="N2" t="n">
-        <v>324762.7513872</v>
+        <v>324762.7513872001</v>
       </c>
       <c r="O2" t="n">
-        <v>324762.7513872002</v>
+        <v>324762.7513871999</v>
       </c>
       <c r="P2" t="n">
-        <v>324762.7513872002</v>
+        <v>324762.7513871999</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>181279.3861333256</v>
+        <v>181279.386133325</v>
       </c>
       <c r="G3" t="n">
-        <v>2960.733137405391</v>
+        <v>2960.733137405954</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>94221.76049153147</v>
+        <v>94221.76049153146</v>
       </c>
       <c r="J3" t="n">
         <v>136594.800805895</v>
@@ -26401,10 +26401,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>154960.5139061623</v>
+        <v>154960.5139061617</v>
       </c>
       <c r="O3" t="n">
-        <v>2599.570900449659</v>
+        <v>2599.570900450197</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>48718.21749193841</v>
       </c>
       <c r="D4" t="n">
-        <v>48718.21749193842</v>
+        <v>48718.21749193841</v>
       </c>
       <c r="E4" t="n">
         <v>48718.21749193841</v>
       </c>
       <c r="F4" t="n">
-        <v>73943.66332157688</v>
+        <v>73943.66332157681</v>
       </c>
       <c r="G4" t="n">
         <v>74374.35696474131</v>
       </c>
       <c r="H4" t="n">
-        <v>74374.35696474132</v>
+        <v>74374.35696474131</v>
       </c>
       <c r="I4" t="n">
-        <v>72762.43982067982</v>
+        <v>72762.43982067984</v>
       </c>
       <c r="J4" t="n">
         <v>72762.43982067984</v>
@@ -26450,16 +26450,16 @@
         <v>72762.43982067984</v>
       </c>
       <c r="M4" t="n">
-        <v>72762.43982067985</v>
+        <v>72762.43982067984</v>
       </c>
       <c r="N4" t="n">
         <v>72762.43982067984</v>
       </c>
       <c r="O4" t="n">
-        <v>72762.43982067984</v>
+        <v>72762.43982067985</v>
       </c>
       <c r="P4" t="n">
-        <v>72762.43982067982</v>
+        <v>72762.43982067985</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="F5" t="n">
-        <v>70208.43378956111</v>
+        <v>70208.43378956098</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26493,7 +26493,7 @@
         <v>79278.01907908043</v>
       </c>
       <c r="J5" t="n">
-        <v>79278.01907908045</v>
+        <v>79278.01907908043</v>
       </c>
       <c r="K5" t="n">
         <v>79278.01907908045</v>
@@ -26502,16 +26502,16 @@
         <v>79278.01907908043</v>
       </c>
       <c r="M5" t="n">
-        <v>79278.01907908045</v>
+        <v>79278.01907908043</v>
       </c>
       <c r="N5" t="n">
-        <v>79278.01907908045</v>
+        <v>79278.01907908043</v>
       </c>
       <c r="O5" t="n">
         <v>79278.01907908045</v>
       </c>
       <c r="P5" t="n">
-        <v>79278.01907908046</v>
+        <v>79278.01907908045</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-89270.82756813956</v>
+        <v>-89948.35642753361</v>
       </c>
       <c r="C6" t="n">
-        <v>85684.68232497454</v>
+        <v>85007.1534655804</v>
       </c>
       <c r="D6" t="n">
-        <v>85684.68232497454</v>
+        <v>85007.1534655804</v>
       </c>
       <c r="E6" t="n">
-        <v>119312.2823249745</v>
+        <v>118634.7534655805</v>
       </c>
       <c r="F6" t="n">
-        <v>-23052.27554071299</v>
+        <v>-23241.19848197161</v>
       </c>
       <c r="G6" t="n">
-        <v>155930.8005648284</v>
+        <v>155750.2199721788</v>
       </c>
       <c r="H6" t="n">
-        <v>158891.5337022339</v>
+        <v>158710.9531095847</v>
       </c>
       <c r="I6" t="n">
-        <v>78500.53199590824</v>
+        <v>78418.19735790367</v>
       </c>
       <c r="J6" t="n">
-        <v>36127.49168154487</v>
+        <v>36045.15704354015</v>
       </c>
       <c r="K6" t="n">
-        <v>172722.2924874399</v>
+        <v>172639.9578494352</v>
       </c>
       <c r="L6" t="n">
-        <v>172722.2924874397</v>
+        <v>172639.9578494351</v>
       </c>
       <c r="M6" t="n">
-        <v>172722.2924874398</v>
+        <v>172639.9578494351</v>
       </c>
       <c r="N6" t="n">
-        <v>17761.77858127753</v>
+        <v>17679.44394327351</v>
       </c>
       <c r="O6" t="n">
-        <v>170122.7215869903</v>
+        <v>170040.3869489849</v>
       </c>
       <c r="P6" t="n">
-        <v>172722.2924874399</v>
+        <v>172639.9578494351</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="J3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="K3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="L3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="M3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="N3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="O3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="P3" t="n">
-        <v>87.35389382924308</v>
+        <v>87.35389382924296</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>1154.743976801992</v>
+        <v>1154.74397680199</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.35389382924298</v>
+        <v>87.35389382924296</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>632.6804064319664</v>
+        <v>632.6804064319643</v>
       </c>
       <c r="G4" t="n">
-        <v>10.80224433079297</v>
+        <v>10.80224433079502</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>107.0475978409477</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700258</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>632.6804064319665</v>
+        <v>632.6804064319643</v>
       </c>
       <c r="O4" t="n">
-        <v>10.80224433079297</v>
+        <v>10.8022443307952</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>632.6804064319664</v>
+        <v>632.6804064319643</v>
       </c>
       <c r="O4" t="n">
-        <v>10.80224433079297</v>
+        <v>10.80224433079502</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H23" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I23" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J23" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K23" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L23" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M23" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N23" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O23" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P23" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q23" t="n">
         <v>37.92256402915643</v>
@@ -32736,7 +32736,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S23" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T23" t="n">
         <v>1.537252945678436</v>
@@ -32785,28 +32785,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I24" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J24" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K24" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L24" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M24" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N24" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O24" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P24" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q24" t="n">
         <v>23.98441250949328</v>
@@ -32818,7 +32818,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U24" t="n">
         <v>0.0123614000701759</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H25" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I25" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J25" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K25" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L25" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M25" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N25" t="n">
         <v>24.10537860373193</v>
@@ -32891,16 +32891,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R25" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S25" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T25" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H26" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I26" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J26" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K26" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L26" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M26" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N26" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O26" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P26" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q26" t="n">
         <v>37.92256402915643</v>
@@ -32973,7 +32973,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S26" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T26" t="n">
         <v>1.537252945678436</v>
@@ -33022,28 +33022,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I27" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J27" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K27" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L27" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M27" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N27" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O27" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P27" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q27" t="n">
         <v>23.98441250949328</v>
@@ -33055,7 +33055,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U27" t="n">
         <v>0.0123614000701759</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H28" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I28" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J28" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K28" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L28" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M28" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N28" t="n">
         <v>24.10537860373193</v>
@@ -33128,16 +33128,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R28" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S28" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T28" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H29" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I29" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J29" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K29" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L29" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M29" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N29" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O29" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P29" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q29" t="n">
         <v>37.92256402915643</v>
@@ -33210,7 +33210,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S29" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T29" t="n">
         <v>1.537252945678436</v>
@@ -33259,28 +33259,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I30" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J30" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K30" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L30" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M30" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N30" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O30" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P30" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q30" t="n">
         <v>23.98441250949328</v>
@@ -33292,7 +33292,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U30" t="n">
         <v>0.0123614000701759</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H31" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I31" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J31" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K31" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L31" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M31" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N31" t="n">
         <v>24.10537860373193</v>
@@ -33365,16 +33365,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R31" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S31" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T31" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U31" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H32" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I32" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J32" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K32" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L32" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M32" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N32" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O32" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P32" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q32" t="n">
         <v>37.92256402915643</v>
@@ -33447,7 +33447,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S32" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T32" t="n">
         <v>1.537252945678436</v>
@@ -33496,28 +33496,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I33" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J33" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K33" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L33" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M33" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N33" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O33" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P33" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q33" t="n">
         <v>23.98441250949328</v>
@@ -33529,7 +33529,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U33" t="n">
         <v>0.0123614000701759</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H34" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I34" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J34" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K34" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L34" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M34" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N34" t="n">
         <v>24.10537860373193</v>
@@ -33602,16 +33602,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R34" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S34" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T34" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H35" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I35" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J35" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K35" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L35" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M35" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N35" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O35" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P35" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q35" t="n">
         <v>37.92256402915643</v>
@@ -33684,7 +33684,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S35" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T35" t="n">
         <v>1.537252945678436</v>
@@ -33733,28 +33733,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I36" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J36" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K36" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L36" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M36" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N36" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O36" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P36" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q36" t="n">
         <v>23.98441250949328</v>
@@ -33766,7 +33766,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U36" t="n">
         <v>0.0123614000701759</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H37" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I37" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J37" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K37" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L37" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M37" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N37" t="n">
         <v>24.10537860373193</v>
@@ -33839,16 +33839,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R37" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S37" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T37" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H38" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I38" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J38" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K38" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L38" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M38" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N38" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O38" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P38" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q38" t="n">
         <v>37.92256402915643</v>
@@ -33921,7 +33921,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S38" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T38" t="n">
         <v>1.537252945678436</v>
@@ -33970,28 +33970,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I39" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J39" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K39" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L39" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M39" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N39" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O39" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P39" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q39" t="n">
         <v>23.98441250949328</v>
@@ -34003,7 +34003,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U39" t="n">
         <v>0.0123614000701759</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H40" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I40" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J40" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K40" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L40" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M40" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N40" t="n">
         <v>24.10537860373193</v>
@@ -34076,16 +34076,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R40" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S40" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T40" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3511714324793685</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H41" t="n">
-        <v>3.596434432879334</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I41" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J41" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K41" t="n">
-        <v>44.67032310424751</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L41" t="n">
-        <v>55.41748583098799</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M41" t="n">
-        <v>61.66263079334296</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N41" t="n">
-        <v>62.66039662587497</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O41" t="n">
-        <v>59.16843569415824</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P41" t="n">
-        <v>50.49889095482383</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q41" t="n">
         <v>37.92256402915643</v>
@@ -34158,7 +34158,7 @@
         <v>22.05927249548215</v>
       </c>
       <c r="S41" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T41" t="n">
         <v>1.537252945678436</v>
@@ -34207,28 +34207,28 @@
         <v>1.814653530301821</v>
       </c>
       <c r="I42" t="n">
-        <v>6.469132703392051</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J42" t="n">
         <v>17.7517945941106</v>
       </c>
       <c r="K42" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L42" t="n">
-        <v>40.79674069827051</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M42" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N42" t="n">
         <v>48.86791085075735</v>
       </c>
       <c r="O42" t="n">
-        <v>44.70459130712211</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87937575035454</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q42" t="n">
         <v>23.98441250949328</v>
@@ -34240,7 +34240,7 @@
         <v>3.490035286479658</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7573417776327761</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U42" t="n">
         <v>0.0123614000701759</v>
@@ -34280,25 +34280,25 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H43" t="n">
-        <v>1.400526363360651</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I43" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J43" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K43" t="n">
         <v>18.30135677274959</v>
       </c>
       <c r="L43" t="n">
-        <v>23.41943573251541</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M43" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N43" t="n">
         <v>24.10537860373193</v>
@@ -34313,16 +34313,16 @@
         <v>13.19043796821569</v>
       </c>
       <c r="R43" t="n">
-        <v>7.082825555400584</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S43" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T43" t="n">
-        <v>0.673054591799085</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008592186278286203</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3511714324793689</v>
+        <v>0.3511714324793684</v>
       </c>
       <c r="H44" t="n">
-        <v>3.596434432879338</v>
+        <v>3.596434432879333</v>
       </c>
       <c r="I44" t="n">
-        <v>13.53853665066088</v>
+        <v>13.53853665066086</v>
       </c>
       <c r="J44" t="n">
-        <v>29.80523636739586</v>
+        <v>29.80523636739582</v>
       </c>
       <c r="K44" t="n">
-        <v>44.67032310424756</v>
+        <v>44.6703231042475</v>
       </c>
       <c r="L44" t="n">
-        <v>55.41748583098806</v>
+        <v>55.41748583098798</v>
       </c>
       <c r="M44" t="n">
-        <v>61.66263079334303</v>
+        <v>61.66263079334295</v>
       </c>
       <c r="N44" t="n">
-        <v>62.66039662587504</v>
+        <v>62.66039662587496</v>
       </c>
       <c r="O44" t="n">
-        <v>59.16843569415831</v>
+        <v>59.16843569415823</v>
       </c>
       <c r="P44" t="n">
-        <v>50.49889095482389</v>
+        <v>50.49889095482382</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.92256402915648</v>
+        <v>37.92256402915643</v>
       </c>
       <c r="R44" t="n">
-        <v>22.05927249548218</v>
+        <v>22.05927249548215</v>
       </c>
       <c r="S44" t="n">
-        <v>8.002319017623627</v>
+        <v>8.002319017623616</v>
       </c>
       <c r="T44" t="n">
-        <v>1.537252945678438</v>
+        <v>1.537252945678436</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0280937145983495</v>
+        <v>0.02809371459834947</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1878932810666738</v>
+        <v>0.1878932810666736</v>
       </c>
       <c r="H45" t="n">
-        <v>1.814653530301823</v>
+        <v>1.814653530301821</v>
       </c>
       <c r="I45" t="n">
-        <v>6.469132703392059</v>
+        <v>6.46913270339205</v>
       </c>
       <c r="J45" t="n">
-        <v>17.75179459411062</v>
+        <v>17.7517945941106</v>
       </c>
       <c r="K45" t="n">
-        <v>30.34064442557776</v>
+        <v>30.34064442557772</v>
       </c>
       <c r="L45" t="n">
-        <v>40.79674069827055</v>
+        <v>40.7967406982705</v>
       </c>
       <c r="M45" t="n">
-        <v>47.60787213693747</v>
+        <v>47.60787213693741</v>
       </c>
       <c r="N45" t="n">
-        <v>48.86791085075741</v>
+        <v>48.86791085075735</v>
       </c>
       <c r="O45" t="n">
-        <v>44.70459130712216</v>
+        <v>44.7045913071221</v>
       </c>
       <c r="P45" t="n">
-        <v>35.87937575035458</v>
+        <v>35.87937575035453</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.98441250949331</v>
+        <v>23.98441250949328</v>
       </c>
       <c r="R45" t="n">
-        <v>11.66586529289401</v>
+        <v>11.665865292894</v>
       </c>
       <c r="S45" t="n">
-        <v>3.490035286479662</v>
+        <v>3.490035286479658</v>
       </c>
       <c r="T45" t="n">
-        <v>0.757341777632777</v>
+        <v>0.757341777632776</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01236140007017591</v>
+        <v>0.0123614000701759</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1575234151019137</v>
+        <v>0.1575234151019135</v>
       </c>
       <c r="H46" t="n">
-        <v>1.400526363360652</v>
+        <v>1.40052636336065</v>
       </c>
       <c r="I46" t="n">
-        <v>4.737158701428462</v>
+        <v>4.737158701428456</v>
       </c>
       <c r="J46" t="n">
-        <v>11.1369054477053</v>
+        <v>11.13690544770528</v>
       </c>
       <c r="K46" t="n">
-        <v>18.30135677274961</v>
+        <v>18.30135677274959</v>
       </c>
       <c r="L46" t="n">
-        <v>23.41943573251543</v>
+        <v>23.4194357325154</v>
       </c>
       <c r="M46" t="n">
-        <v>24.69251133274816</v>
+        <v>24.69251133274813</v>
       </c>
       <c r="N46" t="n">
-        <v>24.10537860373196</v>
+        <v>24.10537860373193</v>
       </c>
       <c r="O46" t="n">
-        <v>22.26521870913232</v>
+        <v>22.2652187091323</v>
       </c>
       <c r="P46" t="n">
-        <v>19.05174104105327</v>
+        <v>19.05174104105324</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.1904379682157</v>
+        <v>13.19043796821569</v>
       </c>
       <c r="R46" t="n">
-        <v>7.082825555400592</v>
+        <v>7.082825555400583</v>
       </c>
       <c r="S46" t="n">
-        <v>2.745203515912441</v>
+        <v>2.745203515912437</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6730545917990858</v>
+        <v>0.6730545917990849</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008592186278286213</v>
+        <v>0.008592186278286201</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,25 +34704,25 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>203.2507825193992</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>441.8756042977812</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>179.3869557635729</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>244.2170912967377</v>
+      </c>
+      <c r="N5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>306.2096305948393</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O8" t="n">
-        <v>500.9700927793177</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P9" t="n">
-        <v>500.9700927793172</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O11" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>254.9467872531342</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>281.6325343622054</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>658.4691050734215</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>29.85810036629282</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>87.49261310237</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q23" t="n">
         <v>362.3276213981383</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L24" t="n">
-        <v>223.7201815413625</v>
+        <v>328.7619350304753</v>
       </c>
       <c r="M24" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>41.52396565918682</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K25" t="n">
         <v>174.4148191184445</v>
@@ -36612,7 +36612,7 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q26" t="n">
         <v>362.3276213981383</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.2859006896619</v>
       </c>
       <c r="M27" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>399.2986541816881</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K28" t="n">
         <v>174.4148191184445</v>
@@ -36849,7 +36849,7 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q29" t="n">
         <v>362.3276213981383</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.2859006896619</v>
       </c>
       <c r="M30" t="n">
-        <v>367.0476948445842</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K31" t="n">
         <v>174.4148191184445</v>
@@ -37086,7 +37086,7 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q32" t="n">
         <v>362.3276213981383</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.2859006896619</v>
       </c>
       <c r="M33" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>223.7201815413626</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K34" t="n">
         <v>174.4148191184445</v>
@@ -37308,7 +37308,7 @@
         <v>286.5582378499759</v>
       </c>
       <c r="K35" t="n">
-        <v>588.2657787699454</v>
+        <v>588.2657787699439</v>
       </c>
       <c r="L35" t="n">
         <v>775.2067785706223</v>
@@ -37323,7 +37323,7 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q35" t="n">
         <v>362.3276213981383</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.2859006896619</v>
       </c>
       <c r="M36" t="n">
-        <v>899.0998728385199</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>399.2986541816881</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>377.362659665032</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K37" t="n">
         <v>174.4148191184445</v>
@@ -37560,7 +37560,7 @@
         <v>709.3006138932541</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q38" t="n">
         <v>362.3276213981383</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>212.5122567785886</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>861.0369049791774</v>
+        <v>899.0998728385199</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>931.3508321756239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>603.2590651327082</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>377.362659665032</v>
+        <v>223.7201815413626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K40" t="n">
         <v>174.4148191184445</v>
@@ -37794,10 +37794,10 @@
         <v>823.4493023214486</v>
       </c>
       <c r="O41" t="n">
-        <v>709.3006138932541</v>
+        <v>709.3006138932559</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q41" t="n">
         <v>362.3276213981383</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>212.5122567785886</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>708.5625709197737</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>666.9996449174005</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>755.7723595352982</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>603.2590651327081</v>
       </c>
       <c r="Q42" t="n">
-        <v>377.362659665032</v>
+        <v>251.5982462135087</v>
       </c>
       <c r="R42" t="n">
-        <v>41.52396565918683</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K43" t="n">
         <v>174.4148191184445</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>286.558237849976</v>
+        <v>286.5582378499759</v>
       </c>
       <c r="K44" t="n">
-        <v>588.2657787699441</v>
+        <v>588.2657787699439</v>
       </c>
       <c r="L44" t="n">
-        <v>775.2067785706224</v>
+        <v>775.2067785706223</v>
       </c>
       <c r="M44" t="n">
-        <v>845.8228237143067</v>
+        <v>845.8228237143065</v>
       </c>
       <c r="N44" t="n">
-        <v>823.4493023214487</v>
+        <v>823.4493023214486</v>
       </c>
       <c r="O44" t="n">
-        <v>709.3006138932542</v>
+        <v>709.3006138932541</v>
       </c>
       <c r="P44" t="n">
-        <v>585.0006060246739</v>
+        <v>585.0006060246737</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.3276213981383</v>
+        <v>362.3276213981396</v>
       </c>
       <c r="R44" t="n">
-        <v>63.02558127282038</v>
+        <v>63.02558127282035</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>490.7510042895158</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>708.5625709197739</v>
+        <v>708.5625709197737</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>899.0998728385199</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>755.7723595352983</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>99.0849518109183</v>
+        <v>446.5084427972128</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.36170282670583</v>
+        <v>25.36170282670581</v>
       </c>
       <c r="K46" t="n">
         <v>174.4148191184445</v>
@@ -38189,13 +38189,13 @@
         <v>307.7809163757019</v>
       </c>
       <c r="O46" t="n">
-        <v>284.4476533823386</v>
+        <v>284.4476533823385</v>
       </c>
       <c r="P46" t="n">
         <v>226.8047109901567</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.38036706166099</v>
+        <v>79.38036706166098</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
